--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -24,60 +24,251 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t xml:space="preserve">unique=the single one of its kind </t>
-  </si>
-  <si>
-    <t>every person  is unique.</t>
-  </si>
-  <si>
-    <t>my signature is  unique.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paradigm = statement perpective </t>
-  </si>
-  <si>
-    <t>this episode may server as a paradigm</t>
-  </si>
-  <si>
-    <t>He had become the paradigm of the succussful man</t>
-  </si>
-  <si>
-    <t>empathy=undarstanding feelings</t>
-  </si>
-  <si>
-    <t>the mother feels empathy with her son.</t>
-  </si>
-  <si>
-    <t>She had greate Empathy with people</t>
-  </si>
-  <si>
-    <t>zenith=Observer</t>
-  </si>
-  <si>
-    <t>She had passed her zenith.</t>
-  </si>
-  <si>
-    <t>the sun rose towerd its zenith.</t>
-  </si>
-  <si>
-    <t>anxiety=A feeling of worry of fear.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> She was devored with anxity.</t>
-  </si>
-  <si>
-    <t>I must own to a fealing of anxity</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Word</t>
+  </si>
+  <si>
+    <t>Sentences</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Meaning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Unique</t>
+  </si>
+  <si>
+    <t>The Single One Of  its Kind</t>
+  </si>
+  <si>
+    <t>My Signature is unique</t>
+  </si>
+  <si>
+    <t>Every Person is unique</t>
+  </si>
+  <si>
+    <t>Paradism</t>
+  </si>
+  <si>
+    <t>Statement perpective</t>
+  </si>
+  <si>
+    <t>This episode may server as a paradism</t>
+  </si>
+  <si>
+    <t>He had become the paradism of the succussful man</t>
+  </si>
+  <si>
+    <t>Empathy</t>
+  </si>
+  <si>
+    <t>Understanding fellings</t>
+  </si>
+  <si>
+    <t>The Police woman showed empathy with others</t>
+  </si>
+  <si>
+    <t>I did not have empathy for the characters</t>
+  </si>
+  <si>
+    <t>Zenith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The highest point of something </t>
+  </si>
+  <si>
+    <t>She still feels a bit wonky after her accident</t>
+  </si>
+  <si>
+    <t>The Wheels keep going wonky</t>
+  </si>
+  <si>
+    <t>Ambiguity</t>
+  </si>
+  <si>
+    <t>The Possibility of being understood in</t>
+  </si>
+  <si>
+    <t>more than one way</t>
+  </si>
+  <si>
+    <t>Much British humour depends on ambiguity</t>
+  </si>
+  <si>
+    <t>Prosaic</t>
+  </si>
+  <si>
+    <t>Lacking wit or imagination(flavorless)</t>
+  </si>
+  <si>
+    <t>Our minister was a prosaic man who ate the same meal for dinner everyday</t>
+  </si>
+  <si>
+    <t>Slipshod</t>
+  </si>
+  <si>
+    <t>Careless</t>
+  </si>
+  <si>
+    <t>she complained that the carpenters work had been slipshod</t>
+  </si>
+  <si>
+    <t>Windbag</t>
+  </si>
+  <si>
+    <t>An empty,Valueble</t>
+  </si>
+  <si>
+    <t>Everyone knows he is a real windbag</t>
+  </si>
+  <si>
+    <t>Incongruity</t>
+  </si>
+  <si>
+    <t>Incompatiblity</t>
+  </si>
+  <si>
+    <t>He has been discharge from his job because of his Incongruity working style</t>
+  </si>
+  <si>
+    <t>Rigour</t>
+  </si>
+  <si>
+    <t>Strictness</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Government should make some rigourous law to control crime</t>
+  </si>
+  <si>
+    <t>Consonance</t>
+  </si>
+  <si>
+    <t>having compatibility</t>
+  </si>
+  <si>
+    <t>The consonence between coach and captain make great team</t>
+  </si>
+  <si>
+    <t>Consent</t>
+  </si>
+  <si>
+    <t>Permitting something</t>
+  </si>
+  <si>
+    <t>Without taking any consent from the manager worker taking wrong decesion</t>
+  </si>
+  <si>
+    <t>Hypothesis</t>
+  </si>
+  <si>
+    <t>Suppose</t>
+  </si>
+  <si>
+    <t>The engineer wrong hypothesis causes weak constrction</t>
+  </si>
+  <si>
+    <t>Slump</t>
+  </si>
+  <si>
+    <t>Collapse</t>
+  </si>
+  <si>
+    <t>The majority economy of country slump in 2022</t>
+  </si>
+  <si>
+    <t>Accommodate</t>
+  </si>
+  <si>
+    <t>TO facilitate</t>
+  </si>
+  <si>
+    <t>Espire accommodate all bootcampers for one week during joining</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Befit </t>
+  </si>
+  <si>
+    <t>Appropriate</t>
+  </si>
+  <si>
+    <t>An intelligent person always befit himself according to situation</t>
+  </si>
+  <si>
+    <t>Affirm</t>
+  </si>
+  <si>
+    <t>Confirm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After the surgical strike Indian army affirm the news in the press confrence </t>
+  </si>
+  <si>
+    <t>Avenue</t>
+  </si>
+  <si>
+    <t>Way</t>
+  </si>
+  <si>
+    <t>Hard Work is the only avenue to success</t>
+  </si>
+  <si>
+    <t>Oppertune</t>
+  </si>
+  <si>
+    <t>Favourable</t>
+  </si>
+  <si>
+    <t>You should always wait for Oppertune time to answer someone who criticize you</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -104,8 +295,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,93 +580,361 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="71.1796875" customWidth="1"/>
+    <col min="1" max="1" width="14.36328125" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" customWidth="1"/>
+    <col min="3" max="3" width="35.1796875" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" customWidth="1"/>
+    <col min="5" max="5" width="71.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>44882</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>14</v>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>44883</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
+        <v>44886</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="3">
+        <v>44887</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" t="s">
+        <v>59</v>
+      </c>
+      <c r="E46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" t="s">
+        <v>62</v>
+      </c>
+      <c r="E48" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" t="s">
+        <v>65</v>
+      </c>
+      <c r="E50" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>